--- a/data/trans_bre/P07B_R_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P07B_R_2023-Edad-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4623783886616618</v>
+        <v>-0.01462409506151834</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.3753916720724209</v>
+        <v>-0.2701719524022056</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.325913338580138</v>
+        <v>7.934697420237616</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9.809526634166101</v>
+        <v>11.06473696506504</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.04995538662098328</v>
+        <v>0.0499553866209819</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.01113965410994091</v>
+        <v>0.0111396541099406</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.566254553203348</v>
+        <v>-3.478743211142796</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5405371513269814</v>
+        <v>-0.5397839731060957</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.8112640791681</v>
+        <v>3.19786570353792</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.084033484939579</v>
+        <v>1.291399984465037</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.414409862289667</v>
+        <v>0.4144098622896664</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.08659488551891675</v>
+        <v>0.0865948855189166</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.235426003391894</v>
+        <v>-2.301977198543666</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.3518544440488689</v>
+        <v>-0.3773110100637457</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.467056879225088</v>
+        <v>2.524689659312706</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.7337991226274314</v>
+        <v>0.6825870769261477</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.426068000015815</v>
+        <v>-1.457130972227689</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1500342668324841</v>
+        <v>-0.1587472562395139</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.244301796761411</v>
+        <v>4.153217997816696</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7848562303341368</v>
+        <v>0.7103412533030803</v>
       </c>
     </row>
     <row r="16">
@@ -739,7 +739,7 @@
         <v>3.921464606762744</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.4670362928365642</v>
+        <v>0.4670362928365641</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9479070428841533</v>
+        <v>1.071019726226096</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.08626894835601184</v>
+        <v>0.1152142869111171</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.125097103879387</v>
+        <v>6.658354670459274</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1.026008055688106</v>
+        <v>1.007123392250573</v>
       </c>
     </row>
     <row r="19">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.74251143289581</v>
+        <v>2.858218471483522</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3058126492611825</v>
+        <v>0.3764765126006994</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.614474677144379</v>
+        <v>8.544136805519068</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.953284106417945</v>
+        <v>1.905190592519092</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>8.948280604321685</v>
+        <v>8.948280604321681</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.7918268528820264</v>
+        <v>0.791826852882026</v>
       </c>
     </row>
     <row r="23">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.78472979601267</v>
+        <v>4.556753860503628</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.3416162186669615</v>
+        <v>0.3221588789976935</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.65480028490331</v>
+        <v>12.53981177376903</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>1.39473668611661</v>
+        <v>1.336335325081552</v>
       </c>
     </row>
     <row r="25">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>3.428283956869549</v>
+        <v>3.428283956869548</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.550449582359787</v>
+        <v>0.5504495823597866</v>
       </c>
     </row>
     <row r="26">
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.217086967032508</v>
+        <v>2.291899298717254</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.327678275000358</v>
+        <v>0.3274296778928618</v>
       </c>
     </row>
     <row r="27">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.580640164478269</v>
+        <v>4.638346241410514</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8296960830299138</v>
+        <v>0.8381565726459553</v>
       </c>
     </row>
     <row r="28">
